--- a/Project9/NH3/reactants/NH3/nh3_opt.xlsx
+++ b/Project9/NH3/reactants/NH3/nh3_opt.xlsx
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.591</v>
+        <v>23.376</v>
       </c>
       <c r="C2" t="n">
-        <v>6.055</v>
+        <v>6.424</v>
       </c>
       <c r="D2" t="n">
-        <v>46.609</v>
+        <v>48.178</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         <v>2.981</v>
       </c>
       <c r="D5" t="n">
-        <v>12.155</v>
+        <v>13.631</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.813</v>
+        <v>21.598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.093</v>
+        <v>0.463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.013</v>
+        <v>0.106</v>
       </c>
     </row>
   </sheetData>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.149</v>
+        <v>212.608</v>
       </c>
       <c r="C4" t="n">
-        <v>2.004962</v>
+        <v>2.327579</v>
       </c>
       <c r="D4" t="n">
-        <v>4.616597</v>
+        <v>5.35945</v>
       </c>
     </row>
     <row r="5">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.55891e-07</v>
+        <v>9.12601e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.807178</v>
+        <v>-7.039719</v>
       </c>
       <c r="D5" t="n">
-        <v>-15.674107</v>
+        <v>-16.209552</v>
       </c>
     </row>
     <row r="6">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279535000</v>
+        <v>592331000</v>
       </c>
       <c r="C6" t="n">
-        <v>8.446436</v>
+        <v>8.772563999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>19.448637</v>
+        <v>20.199576</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.58103e-16</v>
+        <v>1.55438e-16</v>
       </c>
       <c r="C7" t="n">
-        <v>-15.253286</v>
+        <v>-15.808444</v>
       </c>
       <c r="D7" t="n">
-        <v>-35.121988</v>
+        <v>-36.400287</v>
       </c>
     </row>
     <row r="8">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.00076</v>
+        <v>1.00888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000328</v>
+        <v>0.00384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000755</v>
+        <v>0.008841999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -708,185 +708,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-56.5311413237</v>
+        <v>-56.5662326571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-56.5409077962</v>
+        <v>-56.5669741282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-56.5431266962</v>
+        <v>-56.5669844677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-56.5431409543</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-56.5431409543</v>
+        <v>-56.5669844677</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Temperature [ K ]</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Temperature [ K ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="A8" t="n">
         <v>298.15</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pressure [ atm ]</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pressure [ atm ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Principal Moments of Inertia [ amu Å^2 ]</t>
+        </is>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Principal Moments of Inertia [ amu Å^2 ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5.4245</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.42602</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10.85052</v>
+      <c r="A14" t="n">
+        <v>6.01866</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.01934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.73682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Molecular Mass [ amu ]</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Molecular Mass [ amu ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="A17" t="n">
         <v>17.02655</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rotational Symmetry Number</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rotational Symmetry Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rotational Temperatures [ K ]</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Rotational Temperatures [ K ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>15.96715</v>
-      </c>
-      <c r="B24" t="n">
-        <v>15.96266</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.98245</v>
+      <c r="A23" t="n">
+        <v>14.39089</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14.38924</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.895490000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rotational Constants [ GHZ ]</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Rotational Constants [ GHZ ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>332.70191</v>
-      </c>
-      <c r="B27" t="n">
-        <v>332.60836</v>
-      </c>
-      <c r="C27" t="n">
-        <v>166.32756</v>
+      <c r="A26" t="n">
+        <v>299.85786</v>
+      </c>
+      <c r="B26" t="n">
+        <v>299.82356</v>
+      </c>
+      <c r="C26" t="n">
+        <v>185.35216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Zero-point Vibrational Energy [ J/mol ]</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Zero-point Vibrational Energy [ J/mol ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>87067.89999999999</v>
+      <c r="A29" t="n">
+        <v>90256.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Zero-point Vibrational Energy [ Kcal/mol ]</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Zero-point Vibrational Energy [ Kcal/mol ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>20.80972</v>
+      <c r="A32" t="n">
+        <v>21.57189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vibrational Temperatures [ K ]</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Vibrational Temperatures [ K ]</t>
-        </is>
+      <c r="A35" t="n">
+        <v>1432.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2349.52</v>
+        <v>2407.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2350.47</v>
+        <v>2407.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5201.59</v>
+        <v>5016.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5519.49</v>
+        <v>5222.94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5522.62</v>
+        <v>5223.61</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.033162</v>
+        <v>0.034377</v>
       </c>
     </row>
     <row r="45">
@@ -910,7 +910,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.036001</v>
+        <v>0.037252</v>
       </c>
     </row>
     <row r="48">
@@ -922,7 +922,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.036945</v>
+        <v>0.038196</v>
       </c>
     </row>
     <row r="51">
@@ -934,7 +934,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.014799</v>
+        <v>0.015305</v>
       </c>
     </row>
     <row r="54">
@@ -946,32 +946,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-269.646</v>
+        <v>995.8161</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1632.9974</v>
+        <v>1673.0462</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1633.6632</v>
+        <v>1673.2702</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3615.287</v>
+        <v>3486.8987</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3836.2441</v>
+        <v>3630.1303</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3838.4204</v>
+        <v>3630.5925</v>
       </c>
     </row>
     <row r="62">
@@ -983,32 +983,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.2067</v>
+        <v>1.1841</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.0937</v>
+        <v>1.0685</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.0936</v>
+        <v>1.0685</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.0078</v>
+        <v>1.0241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.103</v>
+        <v>1.0913</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.1031</v>
+        <v>1.0913</v>
       </c>
     </row>
     <row r="70">
@@ -1020,32 +1020,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0517</v>
+        <v>0.6918</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.7183</v>
+        <v>1.7621</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.7197</v>
+        <v>1.7626</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.7611</v>
+        <v>7.3363</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.5641</v>
+        <v>8.4732</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.5753</v>
+        <v>8.4756</v>
       </c>
     </row>
     <row r="78">
@@ -1057,32 +1057,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>750.3324</v>
+        <v>241.5389</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>68.9414</v>
+        <v>28.7767</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>68.9881</v>
+        <v>28.7711</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0017</v>
+        <v>2.6039</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>38.2777</v>
+        <v>3.9852</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>38.3323</v>
+        <v>4.0005</v>
       </c>
     </row>
   </sheetData>
